--- a/src/testCase/c_useCase_file/Fiberbook/设置变量/一维单元设计变量（截面积）.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/设置变量/一维单元设计变量（截面积）.xlsx
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,9 +384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>控件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,10 +392,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,31 +412,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>截面尺寸上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角度设置文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局安全系数文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPRINT复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESS复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAIN复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件地址文本框</t>
+    <t>所有的控件都操作一遍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>截面积上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有选中单元共享变量复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性卡片ID生成规则ID文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料卡片起始ID文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文件文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -455,15 +451,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优化-&gt;优化设置-&gt;全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的控件都操作一遍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qjsz001</t>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截面积下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Dsjjmj001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化-&gt;优化设置-&gt;设计变量-&gt;一维单元设计变量（截面积）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元设计变量（截面积）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desvar_1d_area</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -471,113 +561,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPRINT复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESS复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件地址文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化设置--全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPRINTCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESSCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAINCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始创建全局设定…全局设置创建成功!</t>
+    <t>设计变量--一维单元设计变量（截面积）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示弹窗；信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+同名的 Include文件 desvar1 d area已存在。是否继续?；开始创建一维变量…一维变量创建完毕, 新建DESVAR个数为1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,12 +643,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -673,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,6 +730,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1042,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1054,7 @@
     <row r="1" spans="1:10" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -1049,54 +1063,54 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,100 +1118,100 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -1229,130 +1243,130 @@
     </row>
     <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1370,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1381,182 +1395,181 @@
     <col min="1" max="1" width="8.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="8" customWidth="1"/>
-    <col min="6" max="9" width="8.125" style="8" customWidth="1"/>
-    <col min="10" max="13" width="8.125" style="10" customWidth="1"/>
-    <col min="14" max="20" width="9" style="10"/>
-    <col min="21" max="21" width="10.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="11.625" style="10" customWidth="1"/>
+    <col min="7" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="10.75" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="8" customWidth="1"/>
+    <col min="15" max="18" width="8.125" style="8" customWidth="1"/>
+    <col min="19" max="21" width="8.125" style="10" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11">
-        <v>15</v>
-      </c>
-      <c r="E2" s="11">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="11">
+        <v>150</v>
+      </c>
+      <c r="N2" s="11">
+        <v>700</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="14">
-        <v>5</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="P2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="U2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
